--- a/src/test/resources/present/verb/present_verb.xlsx
+++ b/src/test/resources/present/verb/present_verb.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Alphabet" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,6 +30,7 @@
     <sheet name="Naming the Months of the Year" sheetId="20" state="visible" r:id="rId21"/>
     <sheet name="Date" sheetId="21" state="visible" r:id="rId22"/>
     <sheet name="Pronouns" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="test" sheetId="23" state="visible" r:id="rId24"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -1473,7 +1474,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1587,6 +1588,13 @@
     <font>
       <sz val="15"/>
       <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1741,7 +1749,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1767,6 +1775,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1860,7 +1872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1870,23 +1882,20 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1896,10 +1905,9 @@
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="68.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1991,14 +1999,14 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2008,10 +2016,9 @@
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="67.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2098,14 +2105,14 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2115,10 +2122,9 @@
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.59"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2215,14 +2221,14 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2232,10 +2238,7 @@
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2326,14 +2329,14 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2343,10 +2346,7 @@
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2452,14 +2452,14 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2469,10 +2469,7 @@
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2563,14 +2560,14 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2580,10 +2577,9 @@
       <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="60.99"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2650,14 +2646,14 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2667,12 +2663,12 @@
       <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.56"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3044,14 +3040,14 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3061,12 +3057,12 @@
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.09"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.01"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3271,14 +3267,14 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3288,10 +3284,10 @@
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="92.4"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3358,14 +3354,14 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3375,10 +3371,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3420,14 +3413,14 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3437,10 +3430,10 @@
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="61.41"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3542,14 +3535,14 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3559,10 +3552,10 @@
       <selection pane="topLeft" activeCell="P40" activeCellId="0" sqref="P40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="62.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3794,14 +3787,14 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3811,9 +3804,9 @@
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3860,14 +3853,46 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3877,10 +3902,9 @@
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.49"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3973,14 +3997,14 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3990,10 +4014,9 @@
       <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4147,14 +4170,14 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4164,10 +4187,9 @@
       <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="80.03"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4194,27 +4216,26 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4581,14 +4602,14 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4598,10 +4619,9 @@
       <selection pane="topLeft" activeCell="I43" activeCellId="0" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4978,14 +4998,14 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4995,10 +5015,9 @@
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5050,14 +5069,14 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5067,10 +5086,9 @@
       <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.91"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5117,8 +5135,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>